--- a/example.xlsx
+++ b/example.xlsx
@@ -310,48 +310,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>19080</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>426600</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>737280</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>876240</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="Image 1" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="432360" y="426600"/>
-          <a:ext cx="1940400" cy="449640"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
@@ -360,10 +318,10 @@
   <dimension ref="A1:F1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.515625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.32"/>
@@ -493,6 +451,5 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/example.xlsx
+++ b/example.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t xml:space="preserve">Entities</t>
   </si>
@@ -50,15 +50,6 @@
   </si>
   <si>
     <t xml:space="preserve">Translate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pt_br</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oi, bom [dia](entidade_aqui)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hi, good [morning](entidade_aqui)</t>
   </si>
 </sst>
 </file>
@@ -318,10 +309,10 @@
   <dimension ref="A1:F1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.515625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.53515625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.32"/>
@@ -406,23 +397,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C14" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
+    <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
